--- a/REGULAR/ONT/BAYOT, ELAINE.xlsx
+++ b/REGULAR/ONT/BAYOT, ELAINE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A115E1-01C5-4EB2-9E50-8A402CAF53BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -362,11 +361,17 @@
   <si>
     <t>2024</t>
   </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>1/29,30,31,  2/1,2/2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1035,7 +1040,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1052,25 +1057,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K147" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K147" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1377,34 +1382,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A135" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A120" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="A138" sqref="A138:A147"/>
+      <selection pane="bottomLeft" activeCell="K138" sqref="K138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1425,7 +1430,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1447,7 +1452,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1469,7 +1474,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1477,7 +1482,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1490,7 +1495,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1507,7 +1512,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1551,7 +1556,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>70.10799999999999</v>
+        <v>66.35799999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1561,12 +1566,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>131.542</v>
+        <v>132.792</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1586,7 +1591,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>43</v>
       </c>
@@ -1604,7 +1609,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>41928</v>
       </c>
@@ -1624,7 +1629,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>41944</v>
       </c>
@@ -1644,7 +1649,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>41974</v>
       </c>
@@ -1664,7 +1669,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>44</v>
       </c>
@@ -1682,7 +1687,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>42005</v>
       </c>
@@ -1702,7 +1707,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>42036</v>
       </c>
@@ -1722,7 +1727,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>42064</v>
       </c>
@@ -1742,7 +1747,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>42095</v>
       </c>
@@ -1762,7 +1767,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>42125</v>
       </c>
@@ -1782,7 +1787,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>42156</v>
       </c>
@@ -1802,7 +1807,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>42186</v>
       </c>
@@ -1822,7 +1827,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>42217</v>
       </c>
@@ -1842,7 +1847,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>42248</v>
       </c>
@@ -1862,7 +1867,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>42278</v>
       </c>
@@ -1882,7 +1887,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>42309</v>
       </c>
@@ -1902,7 +1907,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>42339</v>
       </c>
@@ -1926,7 +1931,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>46</v>
       </c>
@@ -1946,7 +1951,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>42370</v>
       </c>
@@ -1966,7 +1971,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>42401</v>
       </c>
@@ -1986,7 +1991,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>42430</v>
       </c>
@@ -2012,7 +2017,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>42461</v>
       </c>
@@ -2032,7 +2037,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>42491</v>
       </c>
@@ -2058,7 +2063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>42522</v>
       </c>
@@ -2078,7 +2083,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>42552</v>
       </c>
@@ -2098,7 +2103,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>42583</v>
       </c>
@@ -2118,7 +2123,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>42614</v>
       </c>
@@ -2138,7 +2143,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>42644</v>
       </c>
@@ -2158,7 +2163,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>42675</v>
       </c>
@@ -2178,7 +2183,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>42705</v>
       </c>
@@ -2202,7 +2207,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>50</v>
       </c>
@@ -2222,7 +2227,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>42736</v>
       </c>
@@ -2242,7 +2247,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>42767</v>
       </c>
@@ -2262,7 +2267,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>42795</v>
       </c>
@@ -2288,7 +2293,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>42826</v>
       </c>
@@ -2308,7 +2313,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>42856</v>
       </c>
@@ -2328,7 +2333,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>42887</v>
       </c>
@@ -2348,7 +2353,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>42917</v>
       </c>
@@ -2368,7 +2373,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>42948</v>
       </c>
@@ -2394,7 +2399,7 @@
         <v>42833</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>42979</v>
       </c>
@@ -2420,7 +2425,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>48</v>
@@ -2444,7 +2449,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43009</v>
       </c>
@@ -2464,7 +2469,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43040</v>
       </c>
@@ -2484,7 +2489,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>43070</v>
       </c>
@@ -2508,7 +2513,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>56</v>
       </c>
@@ -2528,7 +2533,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43101</v>
       </c>
@@ -2548,7 +2553,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43132</v>
       </c>
@@ -2572,7 +2577,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>43160</v>
       </c>
@@ -2596,7 +2601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>43191</v>
       </c>
@@ -2616,7 +2621,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>43221</v>
       </c>
@@ -2642,7 +2647,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>43252</v>
       </c>
@@ -2662,7 +2667,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>43282</v>
       </c>
@@ -2682,7 +2687,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>43313</v>
       </c>
@@ -2702,7 +2707,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>43344</v>
       </c>
@@ -2728,7 +2733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>43374</v>
       </c>
@@ -2748,7 +2753,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>43405</v>
       </c>
@@ -2768,7 +2773,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>43435</v>
       </c>
@@ -2788,7 +2793,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>61</v>
       </c>
@@ -2806,7 +2811,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>43466</v>
       </c>
@@ -2826,7 +2831,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>43497</v>
       </c>
@@ -2846,7 +2851,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>43525</v>
       </c>
@@ -2866,7 +2871,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>43556</v>
       </c>
@@ -2886,7 +2891,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>43586</v>
       </c>
@@ -2906,7 +2911,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>43617</v>
       </c>
@@ -2926,7 +2931,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>43647</v>
       </c>
@@ -2946,7 +2951,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>43678</v>
       </c>
@@ -2966,7 +2971,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>43709</v>
       </c>
@@ -2986,7 +2991,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>43739</v>
       </c>
@@ -3006,7 +3011,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>43770</v>
       </c>
@@ -3026,7 +3031,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>43800</v>
       </c>
@@ -3050,7 +3055,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
         <v>62</v>
       </c>
@@ -3068,7 +3073,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>43831</v>
       </c>
@@ -3088,7 +3093,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>43862</v>
       </c>
@@ -3108,7 +3113,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>43891</v>
       </c>
@@ -3132,7 +3137,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>43922</v>
       </c>
@@ -3152,7 +3157,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>43952</v>
       </c>
@@ -3172,7 +3177,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>43983</v>
       </c>
@@ -3192,7 +3197,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44013</v>
       </c>
@@ -3212,7 +3217,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44044</v>
       </c>
@@ -3232,7 +3237,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44075</v>
       </c>
@@ -3252,7 +3257,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44105</v>
       </c>
@@ -3272,7 +3277,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44136</v>
       </c>
@@ -3292,7 +3297,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44166</v>
       </c>
@@ -3316,7 +3321,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="s">
         <v>64</v>
       </c>
@@ -3334,7 +3339,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44197</v>
       </c>
@@ -3354,7 +3359,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44228</v>
       </c>
@@ -3374,7 +3379,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44256</v>
       </c>
@@ -3394,7 +3399,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44287</v>
       </c>
@@ -3414,7 +3419,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44317</v>
       </c>
@@ -3434,7 +3439,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>44348</v>
       </c>
@@ -3454,7 +3459,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44378</v>
       </c>
@@ -3474,7 +3479,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>44409</v>
       </c>
@@ -3494,7 +3499,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>44440</v>
       </c>
@@ -3514,7 +3519,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>44470</v>
       </c>
@@ -3534,7 +3539,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>44501</v>
       </c>
@@ -3554,7 +3559,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>44531</v>
       </c>
@@ -3578,7 +3583,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>65</v>
       </c>
@@ -3596,7 +3601,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>44562</v>
       </c>
@@ -3616,7 +3621,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>44593</v>
       </c>
@@ -3636,7 +3641,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>44621</v>
       </c>
@@ -3660,7 +3665,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>77</v>
@@ -3682,7 +3687,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>76</v>
@@ -3704,7 +3709,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>44652</v>
       </c>
@@ -3730,7 +3735,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>44682</v>
       </c>
@@ -3754,7 +3759,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>44713</v>
       </c>
@@ -3778,7 +3783,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>44743</v>
       </c>
@@ -3802,7 +3807,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>44774</v>
       </c>
@@ -3826,7 +3831,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>44805</v>
       </c>
@@ -3852,7 +3857,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>44835</v>
       </c>
@@ -3872,7 +3877,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>44866</v>
       </c>
@@ -3892,7 +3897,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>44896</v>
       </c>
@@ -3916,7 +3921,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>80</v>
       </c>
@@ -3934,7 +3939,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>44927</v>
       </c>
@@ -3954,7 +3959,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>44958</v>
       </c>
@@ -3980,7 +3985,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>44986</v>
       </c>
@@ -4006,7 +4011,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>84</v>
@@ -4026,7 +4031,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>85</v>
@@ -4048,7 +4053,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>45017</v>
       </c>
@@ -4068,7 +4073,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>45047</v>
       </c>
@@ -4094,7 +4099,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>45078</v>
       </c>
@@ -4116,7 +4121,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>45108</v>
       </c>
@@ -4136,7 +4141,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>45139</v>
       </c>
@@ -4156,7 +4161,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>45170</v>
       </c>
@@ -4176,7 +4181,7 @@
       <c r="J133" s="12"/>
       <c r="K133" s="15"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>45200</v>
       </c>
@@ -4196,7 +4201,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>45231</v>
       </c>
@@ -4216,20 +4221,22 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>45261</v>
       </c>
       <c r="B136" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C136" s="13"/>
+      <c r="C136" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D136" s="39"/>
       <c r="E136" s="9"/>
       <c r="F136" s="20"/>
-      <c r="G136" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G136" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H136" s="39"/>
       <c r="I136" s="9"/>
@@ -4238,7 +4245,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="48" t="s">
         <v>98</v>
       </c>
@@ -4256,13 +4263,17 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>45322</v>
       </c>
-      <c r="B138" s="20"/>
+      <c r="B138" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="C138" s="13"/>
-      <c r="D138" s="39"/>
+      <c r="D138" s="39">
+        <v>5</v>
+      </c>
       <c r="E138" s="9"/>
       <c r="F138" s="20"/>
       <c r="G138" s="13" t="str">
@@ -4272,9 +4283,11 @@
       <c r="H138" s="39"/>
       <c r="I138" s="9"/>
       <c r="J138" s="11"/>
-      <c r="K138" s="20"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K138" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>45351</v>
       </c>
@@ -4292,7 +4305,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>45382</v>
       </c>
@@ -4310,7 +4323,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>45412</v>
       </c>
@@ -4328,7 +4341,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>45443</v>
       </c>
@@ -4346,7 +4359,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>45473</v>
       </c>
@@ -4364,7 +4377,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>45504</v>
       </c>
@@ -4382,7 +4395,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>45535</v>
       </c>
@@ -4400,7 +4413,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>45565</v>
       </c>
@@ -4418,7 +4431,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>45596</v>
       </c>
@@ -4451,10 +4464,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4477,28 +4490,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4511,7 +4524,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4540,7 +4553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.625</v>
       </c>
@@ -4568,17 +4581,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4599,7 +4612,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4626,7 +4639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4652,7 +4665,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4678,7 +4691,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4704,7 +4717,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4730,7 +4743,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4756,7 +4769,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4782,7 +4795,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4808,7 +4821,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4828,7 +4841,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4848,7 +4861,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4868,7 +4881,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4889,7 +4902,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4910,7 +4923,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4931,7 +4944,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4952,7 +4965,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4973,7 +4986,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4994,7 +5007,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5015,7 +5028,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5036,7 +5049,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5057,7 +5070,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5078,7 +5091,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5099,7 +5112,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5120,7 +5133,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5141,7 +5154,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5162,7 +5175,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5183,7 +5196,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5204,7 +5217,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5225,7 +5238,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5246,7 +5259,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5267,7 +5280,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5288,7 +5301,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5297,7 +5310,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5306,7 +5319,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5315,7 +5328,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5324,7 +5337,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5333,7 +5346,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5342,7 +5355,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5351,7 +5364,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5360,7 +5373,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5369,7 +5382,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5378,7 +5391,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5387,7 +5400,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5396,7 +5409,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5405,7 +5418,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5414,7 +5427,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5423,7 +5436,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5432,7 +5445,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5441,7 +5454,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5450,7 +5463,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5459,7 +5472,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5468,7 +5481,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5477,7 +5490,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5486,7 +5499,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5495,7 +5508,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5504,7 +5517,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5513,7 +5526,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5522,7 +5535,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5531,7 +5544,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5540,7 +5553,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5549,7 +5562,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
